--- a/v012/progress.xlsx
+++ b/v012/progress.xlsx
@@ -55,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +83,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF80FE86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -134,7 +152,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,29 +171,29 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -810,11 +830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39066240"/>
-        <c:axId val="39959936"/>
+        <c:axId val="99283712"/>
+        <c:axId val="99285248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39066240"/>
+        <c:axId val="99283712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +844,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39959936"/>
+        <c:crossAx val="99285248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -832,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39959936"/>
+        <c:axId val="99285248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39066240"/>
+        <c:crossAx val="99283712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,7 +1007,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -1107,7 +1127,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -1125,11 +1145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88587648"/>
-        <c:axId val="88591744"/>
+        <c:axId val="100340864"/>
+        <c:axId val="100342400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88587648"/>
+        <c:axId val="100340864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,14 +1158,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88591744"/>
+        <c:crossAx val="100342400"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88591744"/>
+        <c:axId val="100342400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1177,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88587648"/>
+        <c:crossAx val="100340864"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -1282,7 +1304,7 @@
                   <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -1334,7 +1356,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>46.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -1361,11 +1383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89598208"/>
-        <c:axId val="89603456"/>
+        <c:axId val="100381440"/>
+        <c:axId val="100382976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89598208"/>
+        <c:axId val="100381440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89603456"/>
+        <c:crossAx val="100382976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1383,7 +1405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89603456"/>
+        <c:axId val="100382976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1435,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89598208"/>
+        <c:crossAx val="100381440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,15 +1492,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1505,8 +1527,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1530,15 +1552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1849,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,6 +1882,7 @@
     <col min="5" max="5" width="0.85546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1903,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <f>D2/B2*100</f>
+        <f t="shared" ref="G2:G10" si="0">D2/B2*100</f>
         <v>0</v>
       </c>
       <c r="H2" s="5">
@@ -1925,15 +1948,15 @@
         <v>5</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F12" si="0">D3/C3*100</f>
+        <f t="shared" ref="F3:F10" si="1">D3/C3*100</f>
         <v>100</v>
       </c>
       <c r="G3" s="5">
-        <f>D3/B3*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H12" si="1">G3-F3</f>
+        <f t="shared" ref="H3:H12" si="2">G3-F3</f>
         <v>0</v>
       </c>
     </row>
@@ -1951,20 +1974,20 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G4" s="5">
-        <f>D4/B4*100</f>
-        <v>100</v>
-      </c>
       <c r="H4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="4">
@@ -1977,20 +2000,20 @@
         <v>2</v>
       </c>
       <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G5" s="5">
-        <f>D5/B5*100</f>
         <v>66.666666666666657</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.666666666666657</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <v>4.3</v>
       </c>
       <c r="B6" s="4">
@@ -2000,19 +2023,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G6" s="5">
-        <f>D6/B6*100</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>23.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,20 +2052,20 @@
         <v>4</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G7" s="5">
-        <f>D7/B7*100</f>
-        <v>100</v>
-      </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="4">
@@ -2056,20 +2079,20 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="G8" s="5">
-        <f>D8/B8*100</f>
         <v>40</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.428571428571431</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="4">
@@ -2082,15 +2105,15 @@
         <v>4</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>36.363636363636367</v>
-      </c>
-      <c r="G9" s="5">
-        <f>D9/B9*100</f>
         <v>66.666666666666657</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.30303030303029</v>
       </c>
     </row>
@@ -2108,15 +2131,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="5">
-        <f>D10/B10*100</f>
-        <v>0</v>
-      </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2142,26 +2165,38 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D2:D10)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5">
         <f>D12/C12*100</f>
-        <v>50.909090909090907</v>
+        <v>52.72727272727272</v>
       </c>
       <c r="G12" s="5">
         <f>D12/B12*100</f>
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
-        <v>19.090909090909093</v>
+        <f t="shared" si="2"/>
+        <v>19.77272727272728</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="8">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="10">
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="G2:G10">
     <cfRule type="cellIs" dxfId="49" priority="96" operator="lessThan">
@@ -2309,19 +2344,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10 H12">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>-1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
